--- a/data/processed/state_overviews/delaware_overview.xlsx
+++ b/data/processed/state_overviews/delaware_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>514</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Kent County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>80</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>New Castle County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>334</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Sussex County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>100</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -545,6 +553,38 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>73.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$1,256,309,593</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-26.82%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>73.54%</t>
         </is>
       </c>
     </row>
@@ -599,8 +639,10 @@
           <t>Congressional District (at Large)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>514</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -629,8 +671,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B3">
-        <v>514</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -704,8 +748,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>156</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -734,8 +780,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>151</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -764,8 +812,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>91</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -794,8 +844,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>39</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -824,8 +876,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>49</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -854,8 +908,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>28</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -884,8 +940,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>514</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -959,8 +1017,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>48</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -989,8 +1049,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>61</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1019,8 +1081,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>23</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1049,8 +1113,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>33</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,8 +1145,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1109,8 +1177,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>185</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1139,8 +1209,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1169,8 +1241,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>34</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1199,8 +1273,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1229,8 +1305,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>114</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>4</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1289,8 +1369,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>514</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/delaware_overview.xlsx
+++ b/data/processed/state_overviews/delaware_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,160 +431,192 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kent County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$254,877,640</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-47.74%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>83.75%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New Castle County</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$896,432,426</t>
+          <t>$1,256,309,593</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.76%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22.78%</t>
+          <t>-26.82%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.26%</t>
+          <t>73.54%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sussex County</t>
+          <t>Kent County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$104,999,527</t>
+          <t>$254,877,640</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.21%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-29.46%</t>
+          <t>-47.74%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>83.75%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>New Castle County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,256,309,593</t>
+          <t>$896,432,426</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>8.76%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-26.82%</t>
+          <t>-22.78%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73.54%</t>
+          <t>71.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sussex County</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$104,999,527</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.21%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-29.46%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>73.00%</t>
         </is>
       </c>
     </row>
@@ -595,7 +627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,71 +636,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,256,309,593</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-26.82%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>73.54%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -692,6 +724,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Congressional district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$1,256,309,593</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-26.82%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>73.54%</t>
         </is>
@@ -718,34 +782,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -777,128 +841,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$159,238,036</t>
+          <t>$878,068,273</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.27%</t>
+          <t>5.16%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-31.12%</t>
+          <t>-12.65%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.86%</t>
+          <t>69.39%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$39,293,365</t>
+          <t>$159,238,036</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.41%</t>
+          <t>14.27%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-30.20%</t>
+          <t>-31.12%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>70.86%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$148,811,089</t>
+          <t>$39,293,365</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.63%</t>
+          <t>13.41%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-36.23%</t>
+          <t>-30.20%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$878,068,273</t>
+          <t>$148,811,089</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.16%</t>
+          <t>5.63%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-12.65%</t>
+          <t>-36.23%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.39%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -987,34 +1051,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1046,7 +1110,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1078,7 +1142,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1110,7 +1174,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1174,7 +1238,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1206,7 +1270,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1238,7 +1302,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1270,7 +1334,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1302,64 +1366,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$192,545,718</t>
+          <t>$286,148,110</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-19.66%</t>
+          <t>1.63%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>77.19%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$286,148,110</t>
+          <t>$192,545,718</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.63%</t>
+          <t>-19.66%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>77.19%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/delaware_overview.xlsx
+++ b/data/processed/state_overviews/delaware_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,256,309,593</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-26.82%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>73.54%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,256,309,593</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-26.82%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>73.54%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>83.75%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$254,877,640</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-47.74%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>83.75%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.26%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>334</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$896,432,426</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.76%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-22.78%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.26%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>73.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$104,999,527</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>17.21%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-29.46%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>73.00%</t>
         </is>
       </c>
     </row>
@@ -641,27 +641,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -673,27 +673,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -705,59 +705,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,256,309,593</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-26.82%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>73.54%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional district (at large)</t>
+          <t>Congressional District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$1,256,309,593</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-26.82%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>73.54%</t>
         </is>
       </c>
     </row>
@@ -782,187 +782,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>156</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$28,746,625</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>7.66%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-35.66%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>70.86%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$878,068,273</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.16%</t>
+          <t>$159,238,036</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-12.65%</t>
+          <t>14.27%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.39%</t>
+          <t>-31.12%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>76.92%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$159,238,036</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.27%</t>
+          <t>$39,293,365</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-31.12%</t>
+          <t>13.41%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.86%</t>
+          <t>-30.20%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84.62%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$39,293,365</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.41%</t>
+          <t>$148,811,089</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-30.20%</t>
+          <t>5.63%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>-36.23%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>69.39%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$148,811,089</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.63%</t>
+          <t>$878,068,273</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-36.23%</t>
+          <t>5.16%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>-12.65%</t>
         </is>
       </c>
     </row>
@@ -974,27 +974,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>60.71%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,152,205</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>11.26%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-23.55%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>60.71%</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,256,309,593</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-26.82%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>73.54%</t>
         </is>
       </c>
     </row>
@@ -1051,155 +1051,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$32,126,193</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>13.50%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-10.17%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.13%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$197,388,696</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>5.99%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-56.44%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.13%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>43.48%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$249,975,545</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>25.58%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.20%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>43.48%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$44,106,600</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1.35%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-43.98%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -1211,219 +1211,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$37,023,317</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.32%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.61%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.76%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>185</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$181,205,892</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>13.42%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-39.73%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.76%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,840,864</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-60.23%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$33,197,123</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.36%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-15.57%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$751,535</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>16.97%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-9.69%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>77.19%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$286,148,110</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>$192,545,718</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.63%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-19.66%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$192,545,718</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>$286,148,110</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-19.66%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77.19%</t>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -1435,27 +1435,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>73.54%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>514</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,256,309,593</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>9.93%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-26.82%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>73.54%</t>
         </is>
       </c>
     </row>
